--- a/exceldata/excel/all/M-秘密出行表.xlsx
+++ b/exceldata/excel/all/M-秘密出行表.xlsx
@@ -6877,7 +6877,7 @@
   <dimension ref="A3:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="G244" sqref="G244"/>
+      <selection activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="7"/>
